--- a/test.xlsx
+++ b/test.xlsx
@@ -29,46 +29,46 @@
     <t>height</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/origin_images/1.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/picpass/PicPassImages/tree/master/thumbnails_128/1.jpeg</t>
+    <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/origin_images/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/thumbnails/1.png</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/origin_images/2.jpeg</t>
   </si>
   <si>
-    <t>https://github.com/picpass/PicPassImages/tree/master/thumbnails_128/2.jpeg</t>
+    <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/thumbnails/2.jpeg</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/origin_images/3.jpeg</t>
   </si>
   <si>
-    <t>https://github.com/picpass/PicPassImages/tree/master/thumbnails_128/3.jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/origin_images/4.jpeg</t>
-  </si>
-  <si>
-    <t>https://github.com/picpass/PicPassImages/tree/master/thumbnails_128/4.jpeg</t>
+    <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/thumbnails/3.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/origin_images/4.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/thumbnails/4.jpg</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/origin_images/5.jpeg</t>
   </si>
   <si>
-    <t>https://github.com/picpass/PicPassImages/tree/master/thumbnails_128/5.jpeg</t>
+    <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/thumbnails/5.jpeg</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/origin_images/6.jpeg</t>
   </si>
   <si>
-    <t>https://github.com/picpass/PicPassImages/tree/master/thumbnails_128/6.jpeg</t>
+    <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/thumbnails/6.jpeg</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/origin_images/7.jpeg</t>
   </si>
   <si>
-    <t>https://github.com/picpass/PicPassImages/tree/master/thumbnails_128/7.jpeg</t>
+    <t>https://raw.githubusercontent.com/picpass/PicPassImages/master/thumbnails/7.jpeg</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
         <v>256</v>
       </c>
       <c r="D2" t="n">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -464,7 +464,7 @@
         <v>256</v>
       </c>
       <c r="D3" t="n">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -489,7 +489,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D5" t="n">
         <v>256</v>
@@ -503,10 +503,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="D6" t="n">
-        <v>256</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D7" t="n">
         <v>256</v>
@@ -531,10 +531,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="D8" t="n">
-        <v>169</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
